--- a/data/Ug.xlsx
+++ b/data/Ug.xlsx
@@ -133,9 +133,6 @@
     <t>ВЛ 500 кВ Ростовская АЭС – Тихорецк №2 и ВЛ 500 кВ Ростовская АЭС – Невинномысск(Р2+Р4)</t>
   </si>
   <si>
-    <t>1 СШ-500 кВ ПС 500 кВ Тихорецк и ВЛ 500 кВ Ростовская – Тамань (Р26+Р4) или 2 СШ-500 кВ ПС 500 кВ Тихорецк и ВЛ 500 кВ Ростовская – Тамань (Р27+Р4)</t>
-  </si>
-  <si>
     <t>«Зима»</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>КПР-2_"Юг"</t>
+  </si>
+  <si>
+    <t>1 СШ-500 кВ ПС 500 кВ Тихорецк и ВЛ 500 кВ Ростовская – Тамань (Р26+Р5) или 2 СШ-500 кВ ПС 500 кВ Тихорецк и ВЛ 500 кВ Ростовская – Тамань (Р27+Р5)</t>
   </si>
 </sst>
 </file>
@@ -400,12 +400,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -423,6 +417,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,53 +746,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>3050</v>
       </c>
@@ -894,102 +894,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -997,44 +997,44 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7">
         <v>20</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="6" spans="1:35" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7">
         <v>20</v>
@@ -3983,6 +3983,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:AI1"/>
@@ -3999,25 +4018,6 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4028,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T4"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4041,53 +4041,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>2650</v>
       </c>
@@ -4189,102 +4189,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -4292,40 +4292,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="111.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -5370,7 +5370,7 @@
     </row>
     <row r="16" spans="1:35" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7">
         <v>20</v>
@@ -5477,6 +5477,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AI3:AI4"/>
@@ -5493,25 +5512,6 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5538,53 +5538,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>3050</v>
       </c>
@@ -5686,102 +5686,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -5789,44 +5789,44 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="7">
         <v>20</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="6" spans="1:35" ht="221.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7">
         <v>20</v>
@@ -8703,20 +8703,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -8733,11 +8724,20 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8748,7 +8748,7 @@
   <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AQ6" sqref="AQ6"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8763,53 +8763,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+        <v>38</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>2650</v>
       </c>
@@ -8911,102 +8911,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -9014,40 +9014,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -10092,7 +10092,7 @@
     </row>
     <row r="16" spans="1:35" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7">
         <v>20</v>
@@ -10199,6 +10199,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="AI3:AI4"/>
@@ -10215,25 +10234,6 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Ug.xlsx
+++ b/data/Ug.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -400,6 +400,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -417,12 +423,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,53 +746,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="29"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3">
         <v>3050</v>
       </c>
@@ -894,102 +894,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28">
-        <v>2</v>
-      </c>
-      <c r="F3" s="28">
-        <v>3</v>
-      </c>
-      <c r="G3" s="28">
-        <v>4</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>4</v>
+      </c>
+      <c r="H3" s="22">
         <v>5</v>
       </c>
-      <c r="I3" s="28">
-        <v>6</v>
-      </c>
-      <c r="J3" s="28">
+      <c r="I3" s="22">
+        <v>6</v>
+      </c>
+      <c r="J3" s="22">
         <v>7</v>
       </c>
-      <c r="K3" s="28">
-        <v>8</v>
-      </c>
-      <c r="L3" s="28">
+      <c r="K3" s="22">
+        <v>8</v>
+      </c>
+      <c r="L3" s="22">
         <v>9</v>
       </c>
-      <c r="M3" s="28">
-        <v>10</v>
-      </c>
-      <c r="N3" s="28">
+      <c r="M3" s="22">
+        <v>10</v>
+      </c>
+      <c r="N3" s="22">
         <v>11</v>
       </c>
-      <c r="O3" s="28">
-        <v>12</v>
-      </c>
-      <c r="P3" s="28">
+      <c r="O3" s="22">
+        <v>12</v>
+      </c>
+      <c r="P3" s="22">
         <v>13</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="22">
         <v>14</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="22">
         <v>15</v>
       </c>
-      <c r="S3" s="28">
-        <v>16</v>
-      </c>
-      <c r="T3" s="28">
+      <c r="S3" s="22">
+        <v>16</v>
+      </c>
+      <c r="T3" s="22">
         <v>17</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="22">
         <v>18</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="22">
         <v>19</v>
       </c>
-      <c r="W3" s="28">
-        <v>20</v>
-      </c>
-      <c r="X3" s="28">
+      <c r="W3" s="22">
+        <v>20</v>
+      </c>
+      <c r="X3" s="22">
         <v>21</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="22">
         <v>22</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="22">
         <v>23</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="22">
         <v>24</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="22">
         <v>25</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="22">
         <v>26</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="22">
         <v>27</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="22">
         <v>28</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="22">
         <v>29</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="22">
         <v>30</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="22">
         <v>31</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="22">
         <v>32</v>
       </c>
     </row>
@@ -997,40 +997,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
     </row>
     <row r="5" spans="1:35" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1103,16 +1103,16 @@
         <v>16</v>
       </c>
       <c r="AF5" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG5" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH5" s="9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI5" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1185,19 +1185,19 @@
         <v>16</v>
       </c>
       <c r="AE6" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF6" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG6" s="12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH6" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI6" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3983,25 +3983,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:AI1"/>
@@ -4018,6 +3999,25 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4028,7 +4028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -4041,53 +4041,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="29"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3">
         <v>2650</v>
       </c>
@@ -4189,102 +4189,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28">
-        <v>2</v>
-      </c>
-      <c r="F3" s="28">
-        <v>3</v>
-      </c>
-      <c r="G3" s="28">
-        <v>4</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>4</v>
+      </c>
+      <c r="H3" s="22">
         <v>5</v>
       </c>
-      <c r="I3" s="28">
-        <v>6</v>
-      </c>
-      <c r="J3" s="28">
+      <c r="I3" s="22">
+        <v>6</v>
+      </c>
+      <c r="J3" s="22">
         <v>7</v>
       </c>
-      <c r="K3" s="28">
-        <v>8</v>
-      </c>
-      <c r="L3" s="28">
+      <c r="K3" s="22">
+        <v>8</v>
+      </c>
+      <c r="L3" s="22">
         <v>9</v>
       </c>
-      <c r="M3" s="28">
-        <v>10</v>
-      </c>
-      <c r="N3" s="28">
+      <c r="M3" s="22">
+        <v>10</v>
+      </c>
+      <c r="N3" s="22">
         <v>11</v>
       </c>
-      <c r="O3" s="28">
-        <v>12</v>
-      </c>
-      <c r="P3" s="28">
+      <c r="O3" s="22">
+        <v>12</v>
+      </c>
+      <c r="P3" s="22">
         <v>13</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="22">
         <v>14</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="22">
         <v>15</v>
       </c>
-      <c r="S3" s="28">
-        <v>16</v>
-      </c>
-      <c r="T3" s="28">
+      <c r="S3" s="22">
+        <v>16</v>
+      </c>
+      <c r="T3" s="22">
         <v>17</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="22">
         <v>18</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="22">
         <v>19</v>
       </c>
-      <c r="W3" s="28">
-        <v>20</v>
-      </c>
-      <c r="X3" s="28">
+      <c r="W3" s="22">
+        <v>20</v>
+      </c>
+      <c r="X3" s="22">
         <v>21</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="22">
         <v>22</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="22">
         <v>23</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="22">
         <v>24</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="22">
         <v>25</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="22">
         <v>26</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="22">
         <v>27</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="22">
         <v>28</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="22">
         <v>29</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="22">
         <v>30</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="22">
         <v>31</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="22">
         <v>32</v>
       </c>
     </row>
@@ -4292,40 +4292,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
     </row>
     <row r="5" spans="1:35" ht="111.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -5477,6 +5477,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
@@ -5493,25 +5512,6 @@
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5538,53 +5538,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="29"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3">
         <v>3050</v>
       </c>
@@ -5686,102 +5686,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28">
-        <v>2</v>
-      </c>
-      <c r="F3" s="28">
-        <v>3</v>
-      </c>
-      <c r="G3" s="28">
-        <v>4</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>4</v>
+      </c>
+      <c r="H3" s="22">
         <v>5</v>
       </c>
-      <c r="I3" s="28">
-        <v>6</v>
-      </c>
-      <c r="J3" s="28">
+      <c r="I3" s="22">
+        <v>6</v>
+      </c>
+      <c r="J3" s="22">
         <v>7</v>
       </c>
-      <c r="K3" s="28">
-        <v>8</v>
-      </c>
-      <c r="L3" s="28">
+      <c r="K3" s="22">
+        <v>8</v>
+      </c>
+      <c r="L3" s="22">
         <v>9</v>
       </c>
-      <c r="M3" s="28">
-        <v>10</v>
-      </c>
-      <c r="N3" s="28">
+      <c r="M3" s="22">
+        <v>10</v>
+      </c>
+      <c r="N3" s="22">
         <v>11</v>
       </c>
-      <c r="O3" s="28">
-        <v>12</v>
-      </c>
-      <c r="P3" s="28">
+      <c r="O3" s="22">
+        <v>12</v>
+      </c>
+      <c r="P3" s="22">
         <v>13</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="22">
         <v>14</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="22">
         <v>15</v>
       </c>
-      <c r="S3" s="28">
-        <v>16</v>
-      </c>
-      <c r="T3" s="28">
+      <c r="S3" s="22">
+        <v>16</v>
+      </c>
+      <c r="T3" s="22">
         <v>17</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="22">
         <v>18</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="22">
         <v>19</v>
       </c>
-      <c r="W3" s="28">
-        <v>20</v>
-      </c>
-      <c r="X3" s="28">
+      <c r="W3" s="22">
+        <v>20</v>
+      </c>
+      <c r="X3" s="22">
         <v>21</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="22">
         <v>22</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="22">
         <v>23</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="22">
         <v>24</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="22">
         <v>25</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="22">
         <v>26</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="22">
         <v>27</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="22">
         <v>28</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="22">
         <v>29</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="22">
         <v>30</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="22">
         <v>31</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="22">
         <v>32</v>
       </c>
     </row>
@@ -5789,40 +5789,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
     </row>
     <row r="5" spans="1:35" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -8703,11 +8703,20 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -8724,20 +8733,11 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8747,7 +8747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -8763,53 +8763,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="29"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="3">
         <v>2650</v>
       </c>
@@ -8911,102 +8911,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28">
-        <v>2</v>
-      </c>
-      <c r="F3" s="28">
-        <v>3</v>
-      </c>
-      <c r="G3" s="28">
-        <v>4</v>
-      </c>
-      <c r="H3" s="28">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="22">
+        <v>1</v>
+      </c>
+      <c r="E3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3</v>
+      </c>
+      <c r="G3" s="22">
+        <v>4</v>
+      </c>
+      <c r="H3" s="22">
         <v>5</v>
       </c>
-      <c r="I3" s="28">
-        <v>6</v>
-      </c>
-      <c r="J3" s="28">
+      <c r="I3" s="22">
+        <v>6</v>
+      </c>
+      <c r="J3" s="22">
         <v>7</v>
       </c>
-      <c r="K3" s="28">
-        <v>8</v>
-      </c>
-      <c r="L3" s="28">
+      <c r="K3" s="22">
+        <v>8</v>
+      </c>
+      <c r="L3" s="22">
         <v>9</v>
       </c>
-      <c r="M3" s="28">
-        <v>10</v>
-      </c>
-      <c r="N3" s="28">
+      <c r="M3" s="22">
+        <v>10</v>
+      </c>
+      <c r="N3" s="22">
         <v>11</v>
       </c>
-      <c r="O3" s="28">
-        <v>12</v>
-      </c>
-      <c r="P3" s="28">
+      <c r="O3" s="22">
+        <v>12</v>
+      </c>
+      <c r="P3" s="22">
         <v>13</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="22">
         <v>14</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="22">
         <v>15</v>
       </c>
-      <c r="S3" s="28">
-        <v>16</v>
-      </c>
-      <c r="T3" s="28">
+      <c r="S3" s="22">
+        <v>16</v>
+      </c>
+      <c r="T3" s="22">
         <v>17</v>
       </c>
-      <c r="U3" s="28">
+      <c r="U3" s="22">
         <v>18</v>
       </c>
-      <c r="V3" s="28">
+      <c r="V3" s="22">
         <v>19</v>
       </c>
-      <c r="W3" s="28">
-        <v>20</v>
-      </c>
-      <c r="X3" s="28">
+      <c r="W3" s="22">
+        <v>20</v>
+      </c>
+      <c r="X3" s="22">
         <v>21</v>
       </c>
-      <c r="Y3" s="28">
+      <c r="Y3" s="22">
         <v>22</v>
       </c>
-      <c r="Z3" s="28">
+      <c r="Z3" s="22">
         <v>23</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="22">
         <v>24</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="22">
         <v>25</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="22">
         <v>26</v>
       </c>
-      <c r="AD3" s="28">
+      <c r="AD3" s="22">
         <v>27</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="22">
         <v>28</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="22">
         <v>29</v>
       </c>
-      <c r="AG3" s="28">
+      <c r="AG3" s="22">
         <v>30</v>
       </c>
-      <c r="AH3" s="28">
+      <c r="AH3" s="22">
         <v>31</v>
       </c>
-      <c r="AI3" s="28">
+      <c r="AI3" s="22">
         <v>32</v>
       </c>
     </row>
@@ -9014,40 +9014,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
     </row>
     <row r="5" spans="1:35" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -10199,6 +10199,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
@@ -10215,25 +10234,6 @@
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Ug.xlsx
+++ b/data/Ug.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -423,6 +417,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,53 +746,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>3050</v>
       </c>
@@ -894,102 +894,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -997,40 +997,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -3983,6 +3983,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:AI1"/>
@@ -3999,25 +4018,6 @@
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4028,8 +4028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4041,53 +4041,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>2650</v>
       </c>
@@ -4189,102 +4189,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -4292,40 +4292,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="111.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -5477,6 +5477,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
@@ -5493,25 +5512,6 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5538,53 +5538,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>3050</v>
       </c>
@@ -5686,102 +5686,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -5789,40 +5789,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -8703,20 +8703,11 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -8733,11 +8724,20 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AH3:AH4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8763,53 +8763,53 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="29"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
     </row>
     <row r="2" spans="1:35" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="3">
         <v>2650</v>
       </c>
@@ -8911,102 +8911,102 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="22">
-        <v>1</v>
-      </c>
-      <c r="E3" s="22">
-        <v>2</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3</v>
-      </c>
-      <c r="G3" s="22">
-        <v>4</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4</v>
+      </c>
+      <c r="H3" s="28">
         <v>5</v>
       </c>
-      <c r="I3" s="22">
-        <v>6</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="I3" s="28">
+        <v>6</v>
+      </c>
+      <c r="J3" s="28">
         <v>7</v>
       </c>
-      <c r="K3" s="22">
-        <v>8</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="28">
+        <v>8</v>
+      </c>
+      <c r="L3" s="28">
         <v>9</v>
       </c>
-      <c r="M3" s="22">
-        <v>10</v>
-      </c>
-      <c r="N3" s="22">
+      <c r="M3" s="28">
+        <v>10</v>
+      </c>
+      <c r="N3" s="28">
         <v>11</v>
       </c>
-      <c r="O3" s="22">
-        <v>12</v>
-      </c>
-      <c r="P3" s="22">
+      <c r="O3" s="28">
+        <v>12</v>
+      </c>
+      <c r="P3" s="28">
         <v>13</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="28">
         <v>14</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="28">
         <v>15</v>
       </c>
-      <c r="S3" s="22">
-        <v>16</v>
-      </c>
-      <c r="T3" s="22">
+      <c r="S3" s="28">
+        <v>16</v>
+      </c>
+      <c r="T3" s="28">
         <v>17</v>
       </c>
-      <c r="U3" s="22">
+      <c r="U3" s="28">
         <v>18</v>
       </c>
-      <c r="V3" s="22">
+      <c r="V3" s="28">
         <v>19</v>
       </c>
-      <c r="W3" s="22">
-        <v>20</v>
-      </c>
-      <c r="X3" s="22">
+      <c r="W3" s="28">
+        <v>20</v>
+      </c>
+      <c r="X3" s="28">
         <v>21</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y3" s="28">
         <v>22</v>
       </c>
-      <c r="Z3" s="22">
+      <c r="Z3" s="28">
         <v>23</v>
       </c>
-      <c r="AA3" s="22">
+      <c r="AA3" s="28">
         <v>24</v>
       </c>
-      <c r="AB3" s="22">
+      <c r="AB3" s="28">
         <v>25</v>
       </c>
-      <c r="AC3" s="22">
+      <c r="AC3" s="28">
         <v>26</v>
       </c>
-      <c r="AD3" s="22">
+      <c r="AD3" s="28">
         <v>27</v>
       </c>
-      <c r="AE3" s="22">
+      <c r="AE3" s="28">
         <v>28</v>
       </c>
-      <c r="AF3" s="22">
+      <c r="AF3" s="28">
         <v>29</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="28">
         <v>30</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="28">
         <v>31</v>
       </c>
-      <c r="AI3" s="22">
+      <c r="AI3" s="28">
         <v>32</v>
       </c>
     </row>
@@ -9014,40 +9014,40 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
     </row>
     <row r="5" spans="1:35" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -10199,6 +10199,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="C1:C4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="D1:AI1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="AG3:AG4"/>
     <mergeCell ref="AH3:AH4"/>
@@ -10215,25 +10234,6 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="C1:C4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="D1:AI1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="W3:W4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
